--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/3_urgent/20191111-veterans/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/3_urgent/20191111-veterans/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC687B05-8AC1-0E43-8C7C-2FB1DE0DFB55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E9E49A-51E8-984B-8BE4-5286897BC07B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
+    <workbookView xWindow="7660" yWindow="2220" windowWidth="27640" windowHeight="16940" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
   </bookViews>
   <sheets>
     <sheet name="veteran_suicides" sheetId="1" r:id="rId1"/>
@@ -32,35 +32,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>veteran_rate</t>
-  </si>
-  <si>
-    <t>total_rate</t>
-  </si>
-  <si>
-    <t>civilian_rate</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>veteran_suicides</t>
   </si>
   <si>
     <t>Data year</t>
   </si>
   <si>
-    <t>Veteran suicide rate in Minnesota</t>
-  </si>
-  <si>
-    <t>Civilian suicide rate in Minnesota</t>
-  </si>
-  <si>
     <t>Total suicide rate in Minnesota</t>
   </si>
   <si>
@@ -76,20 +58,89 @@
     <t>Minnesota civilian and veteran suicide rates, 2005-2017</t>
   </si>
   <si>
-    <t>Source: Minnesota Department of Health, U.S. Department of Veterans Affairs</t>
-  </si>
-  <si>
-    <t>Minnesota Department of Health, U.S. Department of Veterans Affairs</t>
-  </si>
-  <si>
-    <t>total</t>
+    <t>vet_total</t>
+  </si>
+  <si>
+    <t>all_total</t>
+  </si>
+  <si>
+    <t>civ_total</t>
+  </si>
+  <si>
+    <t>adjusted_rate</t>
+  </si>
+  <si>
+    <t>crude_rate</t>
+  </si>
+  <si>
+    <t>vet_population</t>
+  </si>
+  <si>
+    <t>vet_rate</t>
+  </si>
+  <si>
+    <t>civ_rate</t>
+  </si>
+  <si>
+    <t>civilian_population</t>
+  </si>
+  <si>
+    <t>vet_pct</t>
+  </si>
+  <si>
+    <t>Aged-adjusted suicide rate in Minnesota</t>
+  </si>
+  <si>
+    <t>Total suicides in Minnesota</t>
+  </si>
+  <si>
+    <t>Total veteran suicides in Minnesota</t>
+  </si>
+  <si>
+    <t>Total civilian suicides In Minnesota</t>
+  </si>
+  <si>
+    <t>Total civilian population</t>
+  </si>
+  <si>
+    <t>Percentage of 18+ civilian population who are veterans</t>
+  </si>
+  <si>
+    <t>Veteran suicide rate</t>
+  </si>
+  <si>
+    <t>Civilian suicide rate</t>
+  </si>
+  <si>
+    <t>nonvet_civilians</t>
+  </si>
+  <si>
+    <t>Total civilian veteran population</t>
+  </si>
+  <si>
+    <t>Total non-veteran civilian population</t>
+  </si>
+  <si>
+    <t>total_suicides</t>
+  </si>
+  <si>
+    <t>total_population</t>
+  </si>
+  <si>
+    <t>Total Minnesota population</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Department of Health, U.S. Department of Veterans Affairs, U.S. Census Bureau, Minnesota Compass</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Health, U.S. Department of Veterans Affairs, U.S. Census Bureau, Minnesota Compass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,13 +156,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,12 +207,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,217 +541,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C64E46-F6EB-FA47-82FD-8C12E5A65700}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2005</v>
       </c>
-      <c r="B2">
-        <v>25.291279419528308</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>10.68</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.47</v>
+      </c>
+      <c r="D2" s="2">
+        <v>547</v>
+      </c>
+      <c r="E2" s="5">
+        <v>103</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F13" si="0">D2-E2</f>
+        <v>444</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5119598</v>
+      </c>
+      <c r="H2" s="5">
+        <v>407255</v>
+      </c>
+      <c r="I2" s="9">
+        <v>3759713</v>
+      </c>
+      <c r="J2" s="9">
+        <f>I2-H2</f>
+        <v>3352458</v>
+      </c>
+      <c r="K2" s="7">
+        <f>H2/I2</f>
+        <v>0.10832076810118219</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L15" si="1">(E2/H2) * 100000</f>
+        <v>25.291279419528305</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M15" si="2">(F2/J2) * 100000</f>
         <v>13.244013795251126</v>
       </c>
-      <c r="D2">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2006</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10.59</v>
+      </c>
+      <c r="D3" s="2">
+        <v>554</v>
+      </c>
+      <c r="E3" s="5">
+        <v>113</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5163555</v>
+      </c>
+      <c r="H3" s="5">
+        <v>410003</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3905954</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J15" si="3">I3-H3</f>
+        <v>3495951</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K15" si="4">H3/I3</f>
+        <v>0.1049687221098866</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="1"/>
         <v>27.560773945556495</v>
       </c>
-      <c r="C3">
+      <c r="M3" s="8">
+        <f t="shared" si="2"/>
         <v>12.614593282342916</v>
       </c>
-      <c r="D3">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.79</v>
+      </c>
+      <c r="D4" s="2">
+        <v>572</v>
+      </c>
+      <c r="E4" s="5">
+        <v>125</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5207203</v>
+      </c>
+      <c r="H4" s="5">
+        <v>411065</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3891615</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="3"/>
+        <v>3480550</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="4"/>
+        <v>0.10562838307489307</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
         <v>30.408816123970663</v>
       </c>
-      <c r="C4">
+      <c r="M4" s="8">
+        <f t="shared" si="2"/>
         <v>12.842797833675711</v>
       </c>
-      <c r="D4">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2008</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
+        <v>11.39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11.15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>596</v>
+      </c>
+      <c r="E5" s="6">
+        <v>110</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5247018</v>
+      </c>
+      <c r="H5" s="5">
+        <v>391485</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3966540</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="3"/>
+        <v>3575055</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="4"/>
+        <v>9.8696849143081883E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
         <v>28.098139136876252</v>
       </c>
-      <c r="C5">
+      <c r="M5" s="8">
+        <f t="shared" si="2"/>
         <v>13.594196452921704</v>
       </c>
-      <c r="D5">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2009</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
+        <v>11.06</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="D6" s="2">
+        <v>584</v>
+      </c>
+      <c r="E6" s="6">
+        <v>106</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5281203</v>
+      </c>
+      <c r="H6" s="5">
+        <v>381202</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4004268</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="3"/>
+        <v>3623066</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="4"/>
+        <v>9.519892274942636E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
         <v>27.806779607662079</v>
       </c>
-      <c r="C6">
-        <v>13.193245720613426</v>
-      </c>
-      <c r="D6">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>13.193245720613424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2010</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
+        <v>11.43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11.21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>606</v>
+      </c>
+      <c r="E7" s="6">
+        <v>91</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5303925</v>
+      </c>
+      <c r="H7" s="5">
+        <v>377976</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4024747</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>3646771</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="4"/>
+        <v>9.391298384718344E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
         <v>24.075602683768281</v>
       </c>
-      <c r="C7">
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
         <v>14.122082247555442</v>
       </c>
-      <c r="D7">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2011</v>
       </c>
-      <c r="B8">
-        <v>30.535183620055072</v>
-      </c>
-      <c r="C8">
-        <v>13.897210391868887</v>
-      </c>
-      <c r="D8">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>12.78</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12.42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>683</v>
+      </c>
+      <c r="E8" s="11">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>583</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5345668</v>
+      </c>
+      <c r="H8" s="5">
+        <v>366790</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4065374</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>3698584</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>9.0222941357916892E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>27.263556803620599</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>15.762789218792923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2012</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>11.98</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>656</v>
+      </c>
+      <c r="E9" s="11">
+        <v>100</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>556</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5376550</v>
+      </c>
+      <c r="H9" s="5">
+        <v>367018</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4098333</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>3731315</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>8.9552996303619056E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>27.246620056781957</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>14.900912948920153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>12.52</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.09</v>
+      </c>
+      <c r="D10" s="2">
+        <v>678</v>
+      </c>
+      <c r="E10" s="11">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5413693</v>
+      </c>
+      <c r="H10" s="5">
+        <v>337197</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4136411</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>3799214</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="4"/>
+        <v>8.1519220406289408E-2</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="1"/>
+        <v>29.656254355762361</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="2"/>
+        <v>15.213673143971358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2014</v>
       </c>
       <c r="B11" s="2">
-        <v>25.7</v>
-      </c>
-      <c r="D11">
-        <v>12.2</v>
-      </c>
-      <c r="E11">
+        <v>12.58</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12.26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>686</v>
+      </c>
+      <c r="E11" s="6">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>582</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5451522</v>
+      </c>
+      <c r="H11" s="6">
+        <v>322421</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4171400</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>3848979</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="4"/>
+        <v>7.7293234885170453E-2</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="1"/>
+        <v>32.255963476324432</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="2"/>
+        <v>15.120893099182926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2015</v>
       </c>
       <c r="B12" s="2">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D12">
-        <v>13.1</v>
-      </c>
-      <c r="E12">
+        <v>13.21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13.31</v>
+      </c>
+      <c r="D12" s="2">
+        <v>730</v>
+      </c>
+      <c r="E12" s="6">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>627</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5482503</v>
+      </c>
+      <c r="H12" s="6">
+        <v>322059</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4205120</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>3883061</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="4"/>
+        <v>7.6587350658245193E-2</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="1"/>
+        <v>31.98171763558851</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="2"/>
+        <v>16.147055119659463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
       <c r="B13" s="2">
-        <v>28.2</v>
-      </c>
-      <c r="D13">
-        <v>13.2</v>
-      </c>
-      <c r="E13">
+        <v>13.48</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>745</v>
+      </c>
+      <c r="E13" s="6">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>628</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5523409</v>
+      </c>
+      <c r="H13" s="6">
+        <v>310786</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4228969</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>3918183</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="4"/>
+        <v>7.3489779660243434E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
+        <v>37.646483432329639</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="2"/>
+        <v>16.027837392995682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>13.8</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="2">
+        <v>14.04</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="D14" s="3">
+        <v>783</v>
+      </c>
+      <c r="E14" s="6">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="8">
+        <f>D14-E14</f>
+        <v>666</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5568155</v>
+      </c>
+      <c r="H14" s="6">
+        <v>303524</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4276588</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>3973064</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="4"/>
+        <v>7.0973402160787999E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>38.547198903546338</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="2"/>
+        <v>16.762881242285552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
-      <c r="E15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>804</v>
+      </c>
+      <c r="E15" s="6">
         <v>104</v>
       </c>
+      <c r="F15" s="11">
+        <f>D15-E15</f>
+        <v>700</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5611179</v>
+      </c>
+      <c r="H15" s="6">
+        <v>294377</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4306817</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>4012440</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="4"/>
+        <v>6.8351406618855637E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="1"/>
+        <v>35.328847022695392</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="2"/>
+        <v>17.445743736977999</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -668,7 +1264,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,29 +1275,29 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -711,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA6FE44-518A-1E49-BFD1-C1DF35D4F435}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,7 +1320,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -732,31 +1328,103 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/3_urgent/20191111-veterans/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/3_urgent/20191111-veterans/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E9E49A-51E8-984B-8BE4-5286897BC07B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F70D3-7809-024A-91C8-2DB4A1BD18B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="2220" windowWidth="27640" windowHeight="16940" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
+    <workbookView xWindow="4720" yWindow="5580" windowWidth="27640" windowHeight="16940" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
   </bookViews>
   <sheets>
     <sheet name="veteran_suicides" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Minnesota Department of Health, U.S. Department of Veterans Affairs, U.S. Census Bureau, Minnesota Compass</t>
+  </si>
+  <si>
+    <t>vet_total_pct</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -227,6 +230,9 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,23 +547,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C64E46-F6EB-FA47-82FD-8C12E5A65700}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,31 +581,34 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -614,37 +624,41 @@
       <c r="E2" s="5">
         <v>103</v>
       </c>
-      <c r="F2" s="8">
-        <f t="shared" ref="F2:F13" si="0">D2-E2</f>
+      <c r="F2" s="5">
+        <f>E2/D2</f>
+        <v>0.1882998171846435</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" ref="G2:G13" si="0">D2-E2</f>
         <v>444</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>5119598</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>407255</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="9">
         <v>3759713</v>
       </c>
-      <c r="J2" s="9">
-        <f>I2-H2</f>
+      <c r="K2" s="9">
+        <f>J2-I2</f>
         <v>3352458</v>
       </c>
-      <c r="K2" s="7">
-        <f>H2/I2</f>
+      <c r="L2" s="7">
+        <f>I2/J2</f>
         <v>0.10832076810118219</v>
       </c>
-      <c r="L2" s="6">
-        <f t="shared" ref="L2:L15" si="1">(E2/H2) * 100000</f>
+      <c r="M2" s="6">
+        <f t="shared" ref="M2:M15" si="1">(E2/I2) * 100000</f>
         <v>25.291279419528305</v>
       </c>
-      <c r="M2" s="8">
-        <f t="shared" ref="M2:M15" si="2">(F2/J2) * 100000</f>
+      <c r="N2" s="8">
+        <f t="shared" ref="N2:N15" si="2">(G2/K2) * 100000</f>
         <v>13.244013795251126</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -660,37 +674,41 @@
       <c r="E3" s="5">
         <v>113</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F15" si="3">E3/D3</f>
+        <v>0.20397111913357402</v>
+      </c>
+      <c r="G3" s="8">
         <f t="shared" si="0"/>
         <v>441</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>5163555</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>410003</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>3905954</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" ref="J3:J15" si="3">I3-H3</f>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K15" si="4">J3-I3</f>
         <v>3495951</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3:K15" si="4">H3/I3</f>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L15" si="5">I3/J3</f>
         <v>0.1049687221098866</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <f t="shared" si="1"/>
         <v>27.560773945556495</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <f t="shared" si="2"/>
         <v>12.614593282342916</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -706,37 +724,41 @@
       <c r="E4" s="5">
         <v>125</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.21853146853146854</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" si="0"/>
         <v>447</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>5207203</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>411065</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>3891615</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" si="3"/>
+      <c r="K4" s="9">
+        <f t="shared" si="4"/>
         <v>3480550</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" si="4"/>
+      <c r="L4" s="7">
+        <f t="shared" si="5"/>
         <v>0.10562838307489307</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <f t="shared" si="1"/>
         <v>30.408816123970663</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <f t="shared" si="2"/>
         <v>12.842797833675711</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -752,37 +774,41 @@
       <c r="E5" s="6">
         <v>110</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.18456375838926176</v>
+      </c>
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>486</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>5247018</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>391485</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>3966540</v>
       </c>
-      <c r="J5" s="9">
-        <f t="shared" si="3"/>
+      <c r="K5" s="9">
+        <f t="shared" si="4"/>
         <v>3575055</v>
       </c>
-      <c r="K5" s="7">
-        <f t="shared" si="4"/>
+      <c r="L5" s="7">
+        <f t="shared" si="5"/>
         <v>9.8696849143081883E-2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <f t="shared" si="1"/>
         <v>28.098139136876252</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <f t="shared" si="2"/>
         <v>13.594196452921704</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -798,37 +824,41 @@
       <c r="E6" s="6">
         <v>106</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1815068493150685</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>478</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>5281203</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>381202</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>4004268</v>
       </c>
-      <c r="J6" s="9">
-        <f t="shared" si="3"/>
+      <c r="K6" s="9">
+        <f t="shared" si="4"/>
         <v>3623066</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" si="4"/>
+      <c r="L6" s="7">
+        <f t="shared" si="5"/>
         <v>9.519892274942636E-2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <f t="shared" si="1"/>
         <v>27.806779607662079</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <f t="shared" si="2"/>
         <v>13.193245720613424</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -844,37 +874,41 @@
       <c r="E7" s="6">
         <v>91</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15016501650165018</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>5303925</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>377976</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>4024747</v>
       </c>
-      <c r="J7" s="9">
-        <f t="shared" si="3"/>
+      <c r="K7" s="9">
+        <f t="shared" si="4"/>
         <v>3646771</v>
       </c>
-      <c r="K7" s="7">
-        <f t="shared" si="4"/>
+      <c r="L7" s="7">
+        <f t="shared" si="5"/>
         <v>9.391298384718344E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <f t="shared" si="1"/>
         <v>24.075602683768281</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <f t="shared" si="2"/>
         <v>14.122082247555442</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -890,37 +924,41 @@
       <c r="E8" s="11">
         <v>100</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14641288433382138</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>583</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>5345668</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>366790</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>4065374</v>
       </c>
-      <c r="J8" s="9">
-        <f t="shared" si="3"/>
+      <c r="K8" s="9">
+        <f t="shared" si="4"/>
         <v>3698584</v>
       </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
+      <c r="L8" s="7">
+        <f t="shared" si="5"/>
         <v>9.0222941357916892E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <f t="shared" si="1"/>
         <v>27.263556803620599</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <f t="shared" si="2"/>
         <v>15.762789218792923</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -936,37 +974,41 @@
       <c r="E9" s="11">
         <v>100</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1524390243902439</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>556</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5376550</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>367018</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>4098333</v>
       </c>
-      <c r="J9" s="9">
-        <f t="shared" si="3"/>
+      <c r="K9" s="9">
+        <f t="shared" si="4"/>
         <v>3731315</v>
       </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
+      <c r="L9" s="7">
+        <f t="shared" si="5"/>
         <v>8.9552996303619056E-2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <f t="shared" si="1"/>
         <v>27.246620056781957</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <f t="shared" si="2"/>
         <v>14.900912948920153</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -982,37 +1024,41 @@
       <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14749262536873156</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>578</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>5413693</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>337197</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>4136411</v>
       </c>
-      <c r="J10" s="9">
-        <f t="shared" si="3"/>
+      <c r="K10" s="9">
+        <f t="shared" si="4"/>
         <v>3799214</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" si="4"/>
+      <c r="L10" s="7">
+        <f t="shared" si="5"/>
         <v>8.1519220406289408E-2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <f t="shared" si="1"/>
         <v>29.656254355762361</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <f t="shared" si="2"/>
         <v>15.213673143971358</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -1028,37 +1074,41 @@
       <c r="E11" s="6">
         <v>104</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15160349854227406</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>582</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>5451522</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>322421</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>4171400</v>
       </c>
-      <c r="J11" s="9">
-        <f t="shared" si="3"/>
+      <c r="K11" s="9">
+        <f t="shared" si="4"/>
         <v>3848979</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="4"/>
+      <c r="L11" s="7">
+        <f t="shared" si="5"/>
         <v>7.7293234885170453E-2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <f t="shared" si="1"/>
         <v>32.255963476324432</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <f t="shared" si="2"/>
         <v>15.120893099182926</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1074,37 +1124,41 @@
       <c r="E12" s="6">
         <v>103</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14109589041095891</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>627</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>5482503</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>322059</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>4205120</v>
       </c>
-      <c r="J12" s="9">
-        <f t="shared" si="3"/>
+      <c r="K12" s="9">
+        <f t="shared" si="4"/>
         <v>3883061</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="4"/>
+      <c r="L12" s="7">
+        <f t="shared" si="5"/>
         <v>7.6587350658245193E-2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <f t="shared" si="1"/>
         <v>31.98171763558851</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <f t="shared" si="2"/>
         <v>16.147055119659463</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -1120,37 +1174,41 @@
       <c r="E13" s="6">
         <v>117</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15704697986577182</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>628</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>5523409</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>310786</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>4228969</v>
       </c>
-      <c r="J13" s="9">
-        <f t="shared" si="3"/>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
         <v>3918183</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="4"/>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
         <v>7.3489779660243434E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>37.646483432329639</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <f t="shared" si="2"/>
         <v>16.027837392995682</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -1166,37 +1224,41 @@
       <c r="E14" s="6">
         <v>117</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14942528735632185</v>
+      </c>
+      <c r="G14" s="8">
         <f>D14-E14</f>
         <v>666</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>5568155</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>303524</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="10">
         <v>4276588</v>
       </c>
-      <c r="J14" s="9">
-        <f t="shared" si="3"/>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
         <v>3973064</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="4"/>
+      <c r="L14" s="7">
+        <f t="shared" si="5"/>
         <v>7.0973402160787999E-2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <f t="shared" si="1"/>
         <v>38.547198903546338</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
         <f t="shared" si="2"/>
         <v>16.762881242285552</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -1208,38 +1270,41 @@
       <c r="E15" s="6">
         <v>104</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12935323383084577</v>
+      </c>
+      <c r="G15" s="11">
         <f>D15-E15</f>
         <v>700</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>5611179</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>294377</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>4306817</v>
       </c>
-      <c r="J15" s="9">
-        <f t="shared" si="3"/>
+      <c r="K15" s="9">
+        <f t="shared" si="4"/>
         <v>4012440</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="4"/>
+      <c r="L15" s="7">
+        <f t="shared" si="5"/>
         <v>6.8351406618855637E-2</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <f t="shared" si="1"/>
         <v>35.328847022695392</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <f t="shared" si="2"/>
         <v>17.445743736977999</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F21" s="12"/>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1253,6 +1318,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/3_urgent/20191111-veterans/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F70D3-7809-024A-91C8-2DB4A1BD18B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A81A10-E755-244E-A096-CEB1AB8ED26B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="5580" windowWidth="27640" windowHeight="16940" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
+    <workbookView xWindow="5960" yWindow="8200" windowWidth="27640" windowHeight="11700" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
   </bookViews>
   <sheets>
     <sheet name="veteran_suicides" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -230,9 +230,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C64E46-F6EB-FA47-82FD-8C12E5A65700}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,15 +619,15 @@
         <v>547</v>
       </c>
       <c r="E2" s="5">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5">
         <f>E2/D2</f>
-        <v>0.1882998171846435</v>
+        <v>0.18464351005484461</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2:G13" si="0">D2-E2</f>
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H2" s="4">
         <v>5119598</v>
@@ -651,11 +648,11 @@
       </c>
       <c r="M2" s="6">
         <f t="shared" ref="M2:M15" si="1">(E2/I2) * 100000</f>
-        <v>25.291279419528305</v>
+        <v>24.80018661526562</v>
       </c>
       <c r="N2" s="8">
         <f t="shared" ref="N2:N15" si="2">(G2/K2) * 100000</f>
-        <v>13.244013795251126</v>
+        <v>13.303671515049555</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -672,15 +669,15 @@
         <v>554</v>
       </c>
       <c r="E3" s="5">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F15" si="3">E3/D3</f>
-        <v>0.20397111913357402</v>
+        <f t="shared" ref="F3:F16" si="3">E3/D3</f>
+        <v>0.20938628158844766</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H3" s="4">
         <v>5163555</v>
@@ -696,16 +693,16 @@
         <v>3495951</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L15" si="5">I3/J3</f>
+        <f t="shared" ref="L3:L16" si="5">I3/J3</f>
         <v>0.1049687221098866</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="1"/>
-        <v>27.560773945556495</v>
+        <v>28.292475908712866</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" si="2"/>
-        <v>12.614593282342916</v>
+        <v>12.528779722599086</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -722,15 +719,15 @@
         <v>572</v>
       </c>
       <c r="E4" s="5">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="3"/>
-        <v>0.21853146853146854</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H4" s="4">
         <v>5207203</v>
@@ -751,11 +748,11 @@
       </c>
       <c r="M4" s="6">
         <f t="shared" si="1"/>
-        <v>30.408816123970663</v>
+        <v>31.625168768929488</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="2"/>
-        <v>12.842797833675711</v>
+        <v>12.699142376923188</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -772,15 +769,15 @@
         <v>596</v>
       </c>
       <c r="E5" s="6">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="3"/>
-        <v>0.18456375838926176</v>
+        <v>0.18791946308724833</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H5" s="4">
         <v>5247018</v>
@@ -801,11 +798,11 @@
       </c>
       <c r="M5" s="6">
         <f t="shared" si="1"/>
-        <v>28.098139136876252</v>
+        <v>28.609014393910364</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="2"/>
-        <v>13.594196452921704</v>
+        <v>13.538253257642189</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -822,15 +819,15 @@
         <v>584</v>
       </c>
       <c r="E6" s="6">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="3"/>
-        <v>0.1815068493150685</v>
+        <v>0.17465753424657535</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H6" s="4">
         <v>5281203</v>
@@ -851,11 +848,11 @@
       </c>
       <c r="M6" s="6">
         <f t="shared" si="1"/>
-        <v>27.806779607662079</v>
+        <v>26.757467169637096</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="2"/>
-        <v>13.193245720613424</v>
+        <v>13.303649450493037</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -872,15 +869,15 @@
         <v>606</v>
       </c>
       <c r="E7" s="6">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="3"/>
-        <v>0.15016501650165018</v>
+        <v>0.15841584158415842</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H7" s="4">
         <v>5303925</v>
@@ -901,11 +898,11 @@
       </c>
       <c r="M7" s="6">
         <f t="shared" si="1"/>
-        <v>24.075602683768281</v>
+        <v>25.39843799606324</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="2"/>
-        <v>14.122082247555442</v>
+        <v>13.98497465291898</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -921,16 +918,16 @@
       <c r="D8" s="2">
         <v>683</v>
       </c>
-      <c r="E8" s="11">
-        <v>100</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="6">
+        <v>121</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
-        <v>0.14641288433382138</v>
+        <v>0.17715959004392387</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="H8" s="4">
         <v>5345668</v>
@@ -951,11 +948,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="1"/>
-        <v>27.263556803620599</v>
+        <v>32.988903732380926</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="2"/>
-        <v>15.762789218792923</v>
+        <v>15.195004358424738</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -971,16 +968,16 @@
       <c r="D9" s="2">
         <v>656</v>
       </c>
-      <c r="E9" s="11">
-        <v>100</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="6">
+        <v>127</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
-        <v>0.1524390243902439</v>
+        <v>0.19359756097560976</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="H9" s="4">
         <v>5376550</v>
@@ -1001,11 +998,11 @@
       </c>
       <c r="M9" s="6">
         <f t="shared" si="1"/>
-        <v>27.246620056781957</v>
+        <v>34.603207472113084</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="2"/>
-        <v>14.900912948920153</v>
+        <v>14.177307463990577</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1021,16 +1018,16 @@
       <c r="D10" s="2">
         <v>678</v>
       </c>
-      <c r="E10" s="11">
-        <v>100</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="6">
+        <v>102</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
-        <v>0.14749262536873156</v>
+        <v>0.15044247787610621</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H10" s="4">
         <v>5413693</v>
@@ -1051,11 +1048,11 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" si="1"/>
-        <v>29.656254355762361</v>
+        <v>30.249379442877604</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="2"/>
-        <v>15.213673143971358</v>
+        <v>15.16103067634516</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1122,15 +1119,15 @@
         <v>730</v>
       </c>
       <c r="E12" s="6">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="3"/>
-        <v>0.14109589041095891</v>
+        <v>0.12876712328767123</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="H12" s="4">
         <v>5482503</v>
@@ -1151,11 +1148,11 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" si="1"/>
-        <v>31.98171763558851</v>
+        <v>29.187198618886601</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="2"/>
-        <v>16.147055119659463</v>
+        <v>16.378831030467975</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1172,15 +1169,15 @@
         <v>745</v>
       </c>
       <c r="E13" s="6">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="3"/>
-        <v>0.15704697986577182</v>
+        <v>0.15033557046979865</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="H13" s="4">
         <v>5523409</v>
@@ -1201,11 +1198,11 @@
       </c>
       <c r="M13" s="6">
         <f t="shared" si="1"/>
-        <v>37.646483432329639</v>
+        <v>36.037659354024953</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="2"/>
-        <v>16.027837392995682</v>
+        <v>16.155447563322081</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1222,15 +1219,15 @@
         <v>783</v>
       </c>
       <c r="E14" s="6">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="3"/>
-        <v>0.14942528735632185</v>
+        <v>0.15581098339719029</v>
       </c>
       <c r="G14" s="8">
         <f>D14-E14</f>
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H14" s="4">
         <v>5568155</v>
@@ -1251,32 +1248,34 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" si="1"/>
-        <v>38.547198903546338</v>
+        <v>40.194515096005588</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="2"/>
-        <v>16.762881242285552</v>
+        <v>16.637033785511637</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11">
+        <v>13.027565149999999</v>
+      </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
-        <v>804</v>
+      <c r="D15" s="2">
+        <v>731</v>
       </c>
       <c r="E15" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="3"/>
-        <v>0.12935323383084577</v>
-      </c>
-      <c r="G15" s="11">
+        <v>0.1436388508891929</v>
+      </c>
+      <c r="G15" s="8">
         <f>D15-E15</f>
-        <v>700</v>
+        <v>626</v>
       </c>
       <c r="H15" s="4">
         <v>5611179</v>
@@ -1297,11 +1296,30 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" si="1"/>
-        <v>35.328847022695392</v>
-      </c>
-      <c r="N15" s="11">
+        <v>35.668547474836693</v>
+      </c>
+      <c r="N15" s="8">
         <f t="shared" si="2"/>
-        <v>17.445743736977999</v>
+        <v>15.601479399068895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="D16" s="2">
+        <v>387</v>
+      </c>
+      <c r="E16" s="6">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11369509043927649</v>
+      </c>
+      <c r="G16" s="8">
+        <f>D16-E16</f>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.2">

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/3_urgent/20191111-veterans/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A81A10-E755-244E-A096-CEB1AB8ED26B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2154B8A-5ACC-C541-BBC8-BE83682D9092}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="8200" windowWidth="27640" windowHeight="11700" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
+    <workbookView xWindow="4140" yWindow="1760" windowWidth="27640" windowHeight="18140" activeTab="2" xr2:uid="{76C6F06B-6A7D-824D-B86A-C2ABB2359E60}"/>
   </bookViews>
   <sheets>
     <sheet name="veteran_suicides" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
@@ -61,9 +61,6 @@
     <t>vet_total</t>
   </si>
   <si>
-    <t>all_total</t>
-  </si>
-  <si>
     <t>civ_total</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>vet_total_pct</t>
+  </si>
+  <si>
+    <t>Percentage of suicides that were individuals with prior military service</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C64E46-F6EB-FA47-82FD-8C12E5A65700}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:W19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,43 +566,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>3495951</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L16" si="5">I3/J3</f>
+        <f t="shared" ref="L3:L15" si="5">I3/J3</f>
         <v>0.1049687221098866</v>
       </c>
       <c r="M3" s="6">
@@ -1359,7 +1359,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1391,15 +1391,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA6FE44-518A-1E49-BFD1-C1DF35D4F435}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1417,7 +1417,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1425,18 +1425,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1444,71 +1444,79 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
